--- a/draft/wordfreq.xlsx
+++ b/draft/wordfreq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -1196,7 +1196,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,7 +1249,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,7 +1273,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1281,7 +1297,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,7 +1313,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2310,7 +2326,7 @@
   <dataFields count="3">
     <dataField name="Count - freq*" fld="0" subtotal="count" numFmtId="164"/>
     <dataField name="Sum - freq**" fld="0" subtotal="sum" numFmtId="164"/>
-    <dataField name="Sum - freq***" fld="0" subtotal="sum" numFmtId="165"/>
+    <dataField name="Sum - freq***" fld="0" subtotal="sum" numFmtId="164"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
 </pivotTableDefinition>
@@ -2323,11 +2339,11 @@
   </sheetPr>
   <dimension ref="A1:B309"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4819,18 +4835,18 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="3.91"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,265 +4882,265 @@
         <v>42</v>
       </c>
       <c r="D3" s="13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14" t="n">
         <v>0.0618556701030928</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="F3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="n">
         <v>0.0618556701030928</v>
       </c>
-      <c r="F3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="n">
+      <c r="H3" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="n">
         <v>0.0618556701030928</v>
       </c>
-      <c r="H3" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>0.0618556701030928</v>
-      </c>
-      <c r="J3" s="11" t="n">
+      <c r="J3" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="16" t="n">
         <v>41</v>
       </c>
-      <c r="B4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18" t="n">
         <v>41</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="19" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" s="20" t="n">
         <v>0.0603829160530191</v>
       </c>
-      <c r="E4" s="17" t="n">
+      <c r="F4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="n">
         <v>0.0603829160530191</v>
       </c>
-      <c r="F4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="17" t="n">
+      <c r="H4" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20" t="n">
         <v>0.0603829160530191</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="17" t="n">
-        <v>0.0603829160530191</v>
-      </c>
-      <c r="J4" s="15" t="n">
+      <c r="J4" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="B5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="n">
+      <c r="B5" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="E5" s="17" t="n">
+      <c r="F5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="F5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17" t="n">
+      <c r="H5" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17" t="n">
+      <c r="J5" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>28</v>
+      </c>
+      <c r="D6" s="19" t="n">
+        <v>28</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>0.0412371134020619</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0.0412371134020619</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>0.0412371134020619</v>
+      </c>
+      <c r="J6" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="B7" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" s="19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>0.0265095729013255</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>0.0265095729013255</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20" t="n">
+        <v>0.0265095729013255</v>
+      </c>
+      <c r="J7" s="21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B8" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="19" t="n">
+        <v>30</v>
+      </c>
+      <c r="E8" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="J5" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="D6" s="17" t="n">
-        <v>0.0412371134020619</v>
-      </c>
-      <c r="E6" s="17" t="n">
-        <v>0.0412371134020619</v>
-      </c>
-      <c r="F6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="17" t="n">
-        <v>0.0412371134020619</v>
-      </c>
-      <c r="H6" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="17" t="n">
-        <v>0.0412371134020619</v>
-      </c>
-      <c r="J6" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="D7" s="17" t="n">
-        <v>0.0265095729013255</v>
-      </c>
-      <c r="E7" s="17" t="n">
-        <v>0.0265095729013255</v>
-      </c>
-      <c r="F7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="n">
-        <v>0.0265095729013255</v>
-      </c>
-      <c r="H7" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="17" t="n">
-        <v>0.0265095729013255</v>
-      </c>
-      <c r="J7" s="15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15" t="n">
+      <c r="F8" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="17" t="n">
+      <c r="G8" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="E8" s="17" t="n">
+      <c r="H8" s="21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="20" t="n">
         <v>0.0441826215022091</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="J8" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="17" t="n">
-        <v>0.0441826215022091</v>
-      </c>
-      <c r="H8" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="17" t="n">
-        <v>0.0441826215022091</v>
-      </c>
-      <c r="J8" s="15" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16" t="n">
+      <c r="B9" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18" t="n">
         <v>12</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="19" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="20" t="n">
         <v>0.0176730486008837</v>
       </c>
-      <c r="E9" s="17" t="n">
+      <c r="F9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20" t="n">
         <v>0.0176730486008837</v>
       </c>
-      <c r="F9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="17" t="n">
+      <c r="H9" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="20" t="n">
         <v>0.0176730486008837</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="17" t="n">
-        <v>0.0176730486008837</v>
-      </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="16" t="n">
+      <c r="B10" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="D10" s="17" t="n">
+      <c r="D10" s="19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E10" s="20" t="n">
         <v>0.01620029455081</v>
       </c>
-      <c r="E10" s="17" t="n">
+      <c r="F10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="n">
         <v>0.01620029455081</v>
       </c>
-      <c r="F10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="n">
+      <c r="H10" s="21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20" t="n">
         <v>0.01620029455081</v>
       </c>
-      <c r="H10" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17" t="n">
-        <v>0.01620029455081</v>
-      </c>
-      <c r="J10" s="15" t="n">
+      <c r="J10" s="21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="16" t="n">
+      <c r="C11" s="18" t="n">
         <v>21</v>
       </c>
-      <c r="D11" s="17" t="n">
-        <v>0.0309278350515464</v>
-      </c>
-      <c r="E11" s="18" t="n">
+      <c r="D11" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22" t="n">
         <f aca="false">SUM(E3:E10)</f>
         <v>0.312223858615611</v>
       </c>
@@ -5132,111 +5148,111 @@
         <f aca="false">SUM(F3:F10)</f>
         <v>9</v>
       </c>
-      <c r="G11" s="17" t="n">
+      <c r="G11" s="20" t="n">
         <v>0.0309278350515464</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="I11" s="17" t="n">
+      <c r="I11" s="20" t="n">
         <v>0.0309278350515464</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="21" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="15" t="n">
+      <c r="B12" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="18" t="n">
         <v>24</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="19" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="n">
         <v>0.0353460972017673</v>
       </c>
-      <c r="G12" s="17" t="n">
+      <c r="H12" s="21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="20" t="n">
         <v>0.0353460972017673</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="J12" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="17" t="n">
-        <v>0.0353460972017673</v>
-      </c>
-      <c r="J12" s="15" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="17" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="15" t="n">
+      <c r="C13" s="18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0.0294550810014728</v>
+      </c>
+      <c r="H13" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" s="17" t="n">
+      <c r="I13" s="20" t="n">
         <v>0.0294550810014728</v>
       </c>
-      <c r="G13" s="17" t="n">
-        <v>0.0294550810014728</v>
-      </c>
-      <c r="H13" s="15" t="n">
+      <c r="J13" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="I13" s="17" t="n">
-        <v>0.0294550810014728</v>
-      </c>
-      <c r="J13" s="15" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="15" t="n">
+      <c r="B14" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="18" t="n">
         <v>32</v>
       </c>
-      <c r="D14" s="17" t="n">
+      <c r="D14" s="19" t="n">
+        <v>32</v>
+      </c>
+      <c r="G14" s="20" t="n">
         <v>0.0471281296023564</v>
       </c>
-      <c r="G14" s="17" t="n">
+      <c r="H14" s="21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" s="20" t="n">
         <v>0.0471281296023564</v>
       </c>
-      <c r="H14" s="15" t="n">
+      <c r="J14" s="21" t="n">
         <v>8</v>
       </c>
-      <c r="I14" s="17" t="n">
-        <v>0.0471281296023564</v>
-      </c>
-      <c r="J14" s="15" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B15" s="15" t="n">
+      <c r="B15" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="18" t="n">
         <v>63</v>
       </c>
-      <c r="D15" s="17" t="n">
-        <v>0.0927835051546392</v>
-      </c>
-      <c r="G15" s="18" t="n">
+      <c r="D15" s="19" t="n">
+        <v>63</v>
+      </c>
+      <c r="G15" s="22" t="n">
         <f aca="false">SUM(G3:G14)</f>
         <v>0.455081001472754</v>
       </c>
@@ -5244,47 +5260,47 @@
         <f aca="false">SUM(H3:H14)</f>
         <v>28</v>
       </c>
-      <c r="I15" s="17" t="n">
+      <c r="I15" s="20" t="n">
         <v>0.0927835051546392</v>
       </c>
-      <c r="J15" s="15" t="n">
+      <c r="J15" s="21" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="n">
+      <c r="B16" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="18" t="n">
         <v>96</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="19" t="n">
+        <v>96</v>
+      </c>
+      <c r="I16" s="20" t="n">
         <v>0.141384388807069</v>
       </c>
-      <c r="I16" s="17" t="n">
-        <v>0.141384388807069</v>
-      </c>
-      <c r="J16" s="15" t="n">
+      <c r="J16" s="21" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19" t="n">
+      <c r="A17" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="n">
         <v>211</v>
       </c>
-      <c r="C17" s="20" t="n">
+      <c r="C17" s="24" t="n">
         <v>211</v>
       </c>
-      <c r="D17" s="21" t="n">
-        <v>0.310751104565538</v>
-      </c>
-      <c r="I17" s="18" t="n">
+      <c r="D17" s="25" t="n">
+        <v>211</v>
+      </c>
+      <c r="I17" s="22" t="n">
         <f aca="false">SUM(I3:I16)</f>
         <v>0.689248895434462</v>
       </c>
@@ -5294,17 +5310,17 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="27" t="n">
         <v>308</v>
       </c>
-      <c r="C18" s="24" t="n">
+      <c r="C18" s="28" t="n">
         <v>679</v>
       </c>
-      <c r="D18" s="25" t="n">
-        <v>1</v>
+      <c r="D18" s="29" t="n">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
